--- a/dodatkowe_dane/parki_final.xlsx
+++ b/dodatkowe_dane/parki_final.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grzeg\Desktop\studia\Data Science\2 rok\semestr 2\Spatial\project\parki\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grzeg\Desktop\studia\Data Science\2 rok\semestr 2\Spatial\Housing-Prices-Spatial-econometrics\dodatkowe_dane\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD9240A-06F5-4A8E-B9C2-091E84DFFC9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A41359F-6241-4BD8-9008-6B9F708A3560}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="198">
   <si>
     <t>Nazwa</t>
   </si>
@@ -421,9 +421,6 @@
     <t>Żoliborz</t>
   </si>
   <si>
-    <t>Bemowo miedzy</t>
-  </si>
-  <si>
     <t>Białołęka</t>
   </si>
   <si>
@@ -440,9 +437,6 @@
   </si>
   <si>
     <t>Praga</t>
-  </si>
-  <si>
-    <t>Cietrzewia</t>
   </si>
   <si>
     <t>Praga-Południe</t>
@@ -1037,7 +1031,7 @@
   <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1056,7 +1050,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1073,7 +1067,7 @@
         <v>127</v>
       </c>
       <c r="E2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1090,7 +1084,7 @@
         <v>127</v>
       </c>
       <c r="E3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1107,7 +1101,7 @@
         <v>128</v>
       </c>
       <c r="E4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1124,7 +1118,7 @@
         <v>127</v>
       </c>
       <c r="E5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1158,7 +1152,7 @@
         <v>129</v>
       </c>
       <c r="E7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1175,7 +1169,7 @@
         <v>130</v>
       </c>
       <c r="E8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1192,7 +1186,7 @@
         <v>128</v>
       </c>
       <c r="E9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1209,7 +1203,7 @@
         <v>127</v>
       </c>
       <c r="E10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1226,7 +1220,7 @@
         <v>129</v>
       </c>
       <c r="E11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1243,7 +1237,7 @@
         <v>129</v>
       </c>
       <c r="E12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1260,7 +1254,7 @@
         <v>131</v>
       </c>
       <c r="E13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1277,7 +1271,7 @@
         <v>132</v>
       </c>
       <c r="E14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1291,10 +1285,10 @@
         <v>78</v>
       </c>
       <c r="D15" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="E15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1308,10 +1302,10 @@
         <v>79</v>
       </c>
       <c r="D16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1325,10 +1319,10 @@
         <v>80</v>
       </c>
       <c r="D17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E17" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1345,7 +1339,7 @@
         <v>132</v>
       </c>
       <c r="E18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1362,7 +1356,7 @@
         <v>127</v>
       </c>
       <c r="E19" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1376,10 +1370,10 @@
         <v>83</v>
       </c>
       <c r="D20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E20" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1393,10 +1387,10 @@
         <v>84</v>
       </c>
       <c r="D21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E21" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1410,10 +1404,10 @@
         <v>85</v>
       </c>
       <c r="D22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E22" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1427,10 +1421,10 @@
         <v>86</v>
       </c>
       <c r="D23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E23" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1447,7 +1441,7 @@
         <v>131</v>
       </c>
       <c r="E24" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1464,7 +1458,7 @@
         <v>127</v>
       </c>
       <c r="E25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1481,7 +1475,7 @@
         <v>129</v>
       </c>
       <c r="E26" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1498,7 +1492,7 @@
         <v>127</v>
       </c>
       <c r="E27" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1512,10 +1506,10 @@
         <v>91</v>
       </c>
       <c r="D28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E28" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1532,7 +1526,7 @@
         <v>129</v>
       </c>
       <c r="E29" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1546,10 +1540,10 @@
         <v>93</v>
       </c>
       <c r="D30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E30" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1563,10 +1557,10 @@
         <v>94</v>
       </c>
       <c r="D31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E31" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1580,10 +1574,10 @@
         <v>95</v>
       </c>
       <c r="D32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E32" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1597,10 +1591,10 @@
         <v>96</v>
       </c>
       <c r="D33" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E33" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1614,10 +1608,10 @@
         <v>97</v>
       </c>
       <c r="D34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E34" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1631,10 +1625,10 @@
         <v>98</v>
       </c>
       <c r="D35" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E35" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1651,7 +1645,7 @@
         <v>127</v>
       </c>
       <c r="E36" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1668,7 +1662,7 @@
         <v>129</v>
       </c>
       <c r="E37" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1682,10 +1676,10 @@
         <v>101</v>
       </c>
       <c r="D38" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E38" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1699,10 +1693,10 @@
         <v>102</v>
       </c>
       <c r="D39" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E39" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1716,10 +1710,10 @@
         <v>103</v>
       </c>
       <c r="D40" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E40" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1733,10 +1727,10 @@
         <v>104</v>
       </c>
       <c r="D41" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E41" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1753,7 +1747,7 @@
         <v>132</v>
       </c>
       <c r="E42" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1770,7 +1764,7 @@
         <v>129</v>
       </c>
       <c r="E43" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1784,10 +1778,10 @@
         <v>107</v>
       </c>
       <c r="D44" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E44" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1804,7 +1798,7 @@
         <v>131</v>
       </c>
       <c r="E45" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1818,10 +1812,10 @@
         <v>109</v>
       </c>
       <c r="D46" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E46" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1835,10 +1829,10 @@
         <v>110</v>
       </c>
       <c r="D47" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E47" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1852,7 +1846,7 @@
         <v>111</v>
       </c>
       <c r="D48" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E48">
         <v>2.4</v>
@@ -1869,10 +1863,10 @@
         <v>112</v>
       </c>
       <c r="D49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E49" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1886,10 +1880,10 @@
         <v>113</v>
       </c>
       <c r="D50" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E50" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1906,7 +1900,7 @@
         <v>131</v>
       </c>
       <c r="E51" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -1920,10 +1914,10 @@
         <v>115</v>
       </c>
       <c r="D52" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E52" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1957,7 +1951,7 @@
         <v>129</v>
       </c>
       <c r="E54" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -1988,10 +1982,10 @@
         <v>119</v>
       </c>
       <c r="D56" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E56" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -2008,7 +2002,7 @@
         <v>127</v>
       </c>
       <c r="E57" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -2022,10 +2016,10 @@
         <v>121</v>
       </c>
       <c r="D58" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E58" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -2042,7 +2036,7 @@
         <v>127</v>
       </c>
       <c r="E59" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -2059,7 +2053,7 @@
         <v>130</v>
       </c>
       <c r="E60" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -2076,7 +2070,7 @@
         <v>127</v>
       </c>
       <c r="E61" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -2093,7 +2087,7 @@
         <v>132</v>
       </c>
       <c r="E62" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -2107,10 +2101,10 @@
         <v>126</v>
       </c>
       <c r="D63" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E63" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
